--- a/data/trans_dic/P15_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,21%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -730,22 +731,22 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>77,81%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,39; 81,04</t>
+          <t>74,24; 81,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,53; 87,41</t>
+          <t>81,08; 87,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,83; 61,13</t>
+          <t>52,43; 60,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,08; 47,03</t>
+          <t>37,15; 46,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,65; 33,14</t>
+          <t>25,61; 33,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,69; 80,48</t>
+          <t>74,86; 80,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,52; 88,58</t>
+          <t>83,2; 88,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,92; 62,97</t>
+          <t>56,31; 62,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,75; 46,24</t>
+          <t>37,39; 44,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,95; 33,5</t>
+          <t>26,92; 33,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,22; 79,72</t>
+          <t>75,47; 79,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,27; 87,42</t>
+          <t>83,18; 87,16</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>55,46; 60,58</t>
+          <t>55,53; 60,74</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 44,98</t>
+          <t>38,35; 44,4</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,09; 32,37</t>
+          <t>27,24; 32,31</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,22 +881,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>33,24%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,73; 87,53</t>
+          <t>81,5; 87,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,29; 91,93</t>
+          <t>85,94; 91,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,76; 65,98</t>
+          <t>55,64; 65,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,62; 46,99</t>
+          <t>36,17; 46,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,75; 38,07</t>
+          <t>25,28; 37,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,32; 86,08</t>
+          <t>80,65; 86,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,19; 93,67</t>
+          <t>89,16; 93,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,91; 64,77</t>
+          <t>56,78; 64,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,26; 45,4</t>
+          <t>37,35; 45,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,33; 42,67</t>
+          <t>28,55; 43,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,85; 86,09</t>
+          <t>81,95; 86,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,15; 92,06</t>
+          <t>88,3; 92,0</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>58,15; 64,34</t>
+          <t>57,47; 63,91</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,37; 44,74</t>
+          <t>37,93; 44,69</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28,96; 38,13</t>
+          <t>28,45; 38,13</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,18; 87,83</t>
+          <t>74,84; 87,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,01; 96,85</t>
+          <t>86,89; 96,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,95; 68,21</t>
+          <t>50,66; 68,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,56; 55,67</t>
+          <t>37,87; 57,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,7; 87,33</t>
+          <t>75,13; 87,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,75; 91,85</t>
+          <t>81,79; 93,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,27; 59,6</t>
+          <t>44,02; 59,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,34; 53,44</t>
+          <t>38,57; 53,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,49; 85,8</t>
+          <t>76,78; 85,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>84,58; 93,41</t>
+          <t>87,09; 93,98</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>50,69; 62,1</t>
+          <t>50,31; 61,89</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>40,42; 52,96</t>
+          <t>40,47; 52,51</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,74; 83,04</t>
+          <t>78,54; 83,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 89,41</t>
+          <t>85,29; 89,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,18; 62,02</t>
+          <t>55,43; 61,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,19; 45,59</t>
+          <t>38,91; 45,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,53; 32,84</t>
+          <t>26,81; 33,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,5; 82,35</t>
+          <t>78,51; 82,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,33; 90,0</t>
+          <t>86,55; 90,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,94; 61,8</t>
+          <t>56,79; 61,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,36; 45,01</t>
+          <t>39,17; 44,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,45; 34,73</t>
+          <t>28,08; 34,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,31; 82,22</t>
+          <t>79,4; 82,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,33; 89,1</t>
+          <t>86,52; 89,07</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 61,02</t>
+          <t>56,97; 60,72</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,9; 44,17</t>
+          <t>39,88; 43,92</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 32,74</t>
+          <t>28,28; 32,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1134.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1079.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>854.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1278836</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1398830</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>931292</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>682942</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67105</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1391064</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1555171</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1087276</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>744854</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>71824</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2669900</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2954001</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2018568</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1427796</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>138929</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1217551; 1329677</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1339880; 1445522</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>863879; 1000109</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>611277; 765974</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>58760; 76499</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1340691; 1442166</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1505412; 1603269</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1029875; 1151285</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>680067; 809728</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64046; 80051</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2589386; 2741671</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2879495; 3017526</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1930537; 2111531</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1328503; 1537923</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>127284; 151010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>872.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1171850</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1221031</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>834714</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>567304</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22630</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1177614</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1274962</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>839831</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>575981</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23189</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2349464</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2495993</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1674545</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1143285</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>45819</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1130168; 1209566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1180901; 1257919</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>767398; 897017</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>499688; 643404</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18272; 27210</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1137053; 1218581</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1240689; 1305301</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>780331; 890036</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>516179; 631078</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18719; 28496</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2291695; 2406320</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2441909; 2544239</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1582378; 1759586</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1048255; 1235014</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>39221; 52563</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>347305</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>392929</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>250202</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>196274</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>336407</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>364009</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>214157</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>189756</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>683711</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>756937</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>464359</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>386029</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>316429; 371374</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>367373; 408310</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>214202; 288025</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>160111; 241457</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>309477; 358908</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>336896; 383494</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>180275; 244714</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>158862; 221277</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>640903; 716790</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>726953; 784448</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>418738; 515139</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>337823; 438288</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1078.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>767.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1278.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1186.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>657.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2356.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1717.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2797990</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3012790</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2016208</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1446520</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>89735</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2905085</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3194142</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2141265</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1510591</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95013</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5703075</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6206932</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4157472</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2957111</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>184748</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2709071; 2867175</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2942085; 3077128</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1911997; 2116316</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1342184; 1564002</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>80903; 99809</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2836519; 2979490</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3126751; 3252959</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2051555; 2225762</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1415184; 1608091</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85209; 104278</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5607614; 5805528</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6110425; 6290128</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4023392; 4288250</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2816644; 3101374</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>171171; 198282</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>